--- a/natmiOut/OldD7/LR-pairs_lrc2p/Col1a2-Itga2.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Col1a2-Itga2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>10.1687326386969</v>
+        <v>19.36022366666667</v>
       </c>
       <c r="H2">
-        <v>10.1687326386969</v>
+        <v>58.080671</v>
       </c>
       <c r="I2">
-        <v>0.00312227705603371</v>
+        <v>0.005884129141485179</v>
       </c>
       <c r="J2">
-        <v>0.00312227705603371</v>
+        <v>0.005884129141485179</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.29252836627688</v>
+        <v>1.740822</v>
       </c>
       <c r="N2">
-        <v>1.29252836627688</v>
+        <v>5.222466</v>
       </c>
       <c r="O2">
-        <v>0.4633521751997691</v>
+        <v>0.4863878955914668</v>
       </c>
       <c r="P2">
-        <v>0.4633521751997691</v>
+        <v>0.4863878955914669</v>
       </c>
       <c r="Q2">
-        <v>13.14337538460129</v>
+        <v>33.702703283854</v>
       </c>
       <c r="R2">
-        <v>13.14337538460129</v>
+        <v>303.324329554686</v>
       </c>
       <c r="S2">
-        <v>0.001446713865489551</v>
+        <v>0.002861969190515401</v>
       </c>
       <c r="T2">
-        <v>0.001446713865489551</v>
+        <v>0.002861969190515401</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>10.1687326386969</v>
+        <v>19.36022366666667</v>
       </c>
       <c r="H3">
-        <v>10.1687326386969</v>
+        <v>58.080671</v>
       </c>
       <c r="I3">
-        <v>0.00312227705603371</v>
+        <v>0.005884129141485179</v>
       </c>
       <c r="J3">
-        <v>0.00312227705603371</v>
+        <v>0.005884129141485179</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.02732863164104</v>
+        <v>1.077748</v>
       </c>
       <c r="N3">
-        <v>1.02732863164104</v>
+        <v>3.233244</v>
       </c>
       <c r="O3">
-        <v>0.3682820188210154</v>
+        <v>0.3011241710513264</v>
       </c>
       <c r="P3">
-        <v>0.3682820188210154</v>
+        <v>0.3011241710513265</v>
       </c>
       <c r="Q3">
-        <v>10.44663018723607</v>
+        <v>20.86544233630266</v>
       </c>
       <c r="R3">
-        <v>10.44663018723607</v>
+        <v>187.788981026724</v>
       </c>
       <c r="S3">
-        <v>0.001149878497514632</v>
+        <v>0.001771853510088678</v>
       </c>
       <c r="T3">
-        <v>0.001149878497514632</v>
+        <v>0.001771853510088678</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,60 +652,60 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>10.1687326386969</v>
+        <v>19.36022366666667</v>
       </c>
       <c r="H4">
-        <v>10.1687326386969</v>
+        <v>58.080671</v>
       </c>
       <c r="I4">
-        <v>0.00312227705603371</v>
+        <v>0.005884129141485179</v>
       </c>
       <c r="J4">
-        <v>0.00312227705603371</v>
+        <v>0.005884129141485179</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.469659131405571</v>
+        <v>0.03488166666666666</v>
       </c>
       <c r="N4">
-        <v>0.469659131405571</v>
+        <v>0.104645</v>
       </c>
       <c r="O4">
-        <v>0.1683658059792155</v>
+        <v>0.009745982326006345</v>
       </c>
       <c r="P4">
-        <v>0.1683658059792155</v>
+        <v>0.009745982326006345</v>
       </c>
       <c r="Q4">
-        <v>4.775838138585866</v>
+        <v>0.6753168685327777</v>
       </c>
       <c r="R4">
-        <v>4.775838138585866</v>
+        <v>6.077851816795</v>
       </c>
       <c r="S4">
-        <v>0.0005256846930295278</v>
+        <v>5.734661861685344E-05</v>
       </c>
       <c r="T4">
-        <v>0.0005256846930295278</v>
+        <v>5.734661861685344E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -714,55 +714,55 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3146.43972607617</v>
+        <v>19.36022366666667</v>
       </c>
       <c r="H5">
-        <v>3146.43972607617</v>
+        <v>58.080671</v>
       </c>
       <c r="I5">
-        <v>0.9661043233190511</v>
+        <v>0.005884129141485179</v>
       </c>
       <c r="J5">
-        <v>0.9661043233190511</v>
+        <v>0.005884129141485179</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.29252836627688</v>
+        <v>0.7256300000000001</v>
       </c>
       <c r="N5">
-        <v>1.29252836627688</v>
+        <v>2.17689</v>
       </c>
       <c r="O5">
-        <v>0.4633521751997691</v>
+        <v>0.2027419510312003</v>
       </c>
       <c r="P5">
-        <v>0.4633521751997691</v>
+        <v>0.2027419510312003</v>
       </c>
       <c r="Q5">
-        <v>4066.862598733906</v>
+        <v>14.04835909924333</v>
       </c>
       <c r="R5">
-        <v>4066.862598733906</v>
+        <v>126.43523189319</v>
       </c>
       <c r="S5">
-        <v>0.4476465396797834</v>
+        <v>0.001192959822264247</v>
       </c>
       <c r="T5">
-        <v>0.4476465396797834</v>
+        <v>0.001192959822264247</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,55 +776,55 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3146.43972607617</v>
+        <v>3161.845459</v>
       </c>
       <c r="H6">
-        <v>3146.43972607617</v>
+        <v>9485.536377</v>
       </c>
       <c r="I6">
-        <v>0.9661043233190511</v>
+        <v>0.9609758299542277</v>
       </c>
       <c r="J6">
-        <v>0.9661043233190511</v>
+        <v>0.9609758299542278</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.02732863164104</v>
+        <v>1.740822</v>
       </c>
       <c r="N6">
-        <v>1.02732863164104</v>
+        <v>5.222466</v>
       </c>
       <c r="O6">
-        <v>0.3682820188210154</v>
+        <v>0.4863878955914668</v>
       </c>
       <c r="P6">
-        <v>0.3682820188210154</v>
+        <v>0.4863878955914669</v>
       </c>
       <c r="Q6">
-        <v>3232.42761833084</v>
+        <v>5504.210135627298</v>
       </c>
       <c r="R6">
-        <v>3232.42761833084</v>
+        <v>49537.89122064568</v>
       </c>
       <c r="S6">
-        <v>0.3557988505836511</v>
+        <v>0.4674070116457001</v>
       </c>
       <c r="T6">
-        <v>0.3557988505836511</v>
+        <v>0.4674070116457002</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,60 +838,60 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3146.43972607617</v>
+        <v>3161.845459</v>
       </c>
       <c r="H7">
-        <v>3146.43972607617</v>
+        <v>9485.536377</v>
       </c>
       <c r="I7">
-        <v>0.9661043233190511</v>
+        <v>0.9609758299542277</v>
       </c>
       <c r="J7">
-        <v>0.9661043233190511</v>
+        <v>0.9609758299542278</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.469659131405571</v>
+        <v>1.077748</v>
       </c>
       <c r="N7">
-        <v>0.469659131405571</v>
+        <v>3.233244</v>
       </c>
       <c r="O7">
-        <v>0.1683658059792155</v>
+        <v>0.3011241710513264</v>
       </c>
       <c r="P7">
-        <v>0.1683658059792155</v>
+        <v>0.3011241710513265</v>
       </c>
       <c r="Q7">
-        <v>1477.754148768917</v>
+        <v>3407.672619746332</v>
       </c>
       <c r="R7">
-        <v>1477.754148768917</v>
+        <v>30669.05357771699</v>
       </c>
       <c r="S7">
-        <v>0.1626589330556166</v>
+        <v>0.2893730501953273</v>
       </c>
       <c r="T7">
-        <v>0.1626589330556166</v>
+        <v>0.2893730501953273</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,60 +900,60 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.94925376677653</v>
+        <v>3161.845459</v>
       </c>
       <c r="H8">
-        <v>1.94925376677653</v>
+        <v>9485.536377</v>
       </c>
       <c r="I8">
-        <v>0.0005985121773418527</v>
+        <v>0.9609758299542277</v>
       </c>
       <c r="J8">
-        <v>0.0005985121773418527</v>
+        <v>0.9609758299542278</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>1.29252836627688</v>
+        <v>0.03488166666666666</v>
       </c>
       <c r="N8">
-        <v>1.29252836627688</v>
+        <v>0.104645</v>
       </c>
       <c r="O8">
-        <v>0.4633521751997691</v>
+        <v>0.009745982326006345</v>
       </c>
       <c r="P8">
-        <v>0.4633521751997691</v>
+        <v>0.009745982326006345</v>
       </c>
       <c r="Q8">
-        <v>2.519465786630723</v>
+        <v>110.2904393523517</v>
       </c>
       <c r="R8">
-        <v>2.519465786630723</v>
+        <v>992.613954171165</v>
       </c>
       <c r="S8">
-        <v>0.0002773219192548974</v>
+        <v>0.009365653454453182</v>
       </c>
       <c r="T8">
-        <v>0.0002773219192548974</v>
+        <v>0.009365653454453183</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -962,55 +962,55 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.94925376677653</v>
+        <v>3161.845459</v>
       </c>
       <c r="H9">
-        <v>1.94925376677653</v>
+        <v>9485.536377</v>
       </c>
       <c r="I9">
-        <v>0.0005985121773418527</v>
+        <v>0.9609758299542277</v>
       </c>
       <c r="J9">
-        <v>0.0005985121773418527</v>
+        <v>0.9609758299542278</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.02732863164104</v>
+        <v>0.7256300000000001</v>
       </c>
       <c r="N9">
-        <v>1.02732863164104</v>
+        <v>2.17689</v>
       </c>
       <c r="O9">
-        <v>0.3682820188210154</v>
+        <v>0.2027419510312003</v>
       </c>
       <c r="P9">
-        <v>0.3682820188210154</v>
+        <v>0.2027419510312003</v>
       </c>
       <c r="Q9">
-        <v>2.002524204943675</v>
+        <v>2294.32992041417</v>
       </c>
       <c r="R9">
-        <v>2.002524204943675</v>
+        <v>20648.96928372753</v>
       </c>
       <c r="S9">
-        <v>0.0002204212729604191</v>
+        <v>0.1948301146587471</v>
       </c>
       <c r="T9">
-        <v>0.0002204212729604191</v>
+        <v>0.1948301146587471</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,60 +1024,60 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.94925376677653</v>
+        <v>2.055785333333333</v>
       </c>
       <c r="H10">
-        <v>1.94925376677653</v>
+        <v>6.167356</v>
       </c>
       <c r="I10">
-        <v>0.0005985121773418527</v>
+        <v>0.0006248123263850286</v>
       </c>
       <c r="J10">
-        <v>0.0005985121773418527</v>
+        <v>0.0006248123263850286</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.469659131405571</v>
+        <v>1.740822</v>
       </c>
       <c r="N10">
-        <v>0.469659131405571</v>
+        <v>5.222466</v>
       </c>
       <c r="O10">
-        <v>0.1683658059792155</v>
+        <v>0.4863878955914668</v>
       </c>
       <c r="P10">
-        <v>0.1683658059792155</v>
+        <v>0.4863878955914669</v>
       </c>
       <c r="Q10">
-        <v>0.9154848309933025</v>
+        <v>3.578756335544</v>
       </c>
       <c r="R10">
-        <v>0.9154848309933025</v>
+        <v>32.208807019896</v>
       </c>
       <c r="S10">
-        <v>0.0001007689851265362</v>
+        <v>0.0003039011525700228</v>
       </c>
       <c r="T10">
-        <v>0.0001007689851265362</v>
+        <v>0.0003039011525700228</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
@@ -1086,60 +1086,60 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>98.2745468612994</v>
+        <v>2.055785333333333</v>
       </c>
       <c r="H11">
-        <v>98.2745468612994</v>
+        <v>6.167356</v>
       </c>
       <c r="I11">
-        <v>0.03017488744757338</v>
+        <v>0.0006248123263850286</v>
       </c>
       <c r="J11">
-        <v>0.03017488744757338</v>
+        <v>0.0006248123263850286</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.29252836627688</v>
+        <v>1.077748</v>
       </c>
       <c r="N11">
-        <v>1.29252836627688</v>
+        <v>3.233244</v>
       </c>
       <c r="O11">
-        <v>0.4633521751997691</v>
+        <v>0.3011241710513264</v>
       </c>
       <c r="P11">
-        <v>0.4633521751997691</v>
+        <v>0.3011241710513265</v>
       </c>
       <c r="Q11">
-        <v>127.022639501236</v>
+        <v>2.215618531429333</v>
       </c>
       <c r="R11">
-        <v>127.022639501236</v>
+        <v>19.940566782864</v>
       </c>
       <c r="S11">
-        <v>0.01398159973524133</v>
+        <v>0.0001881460938453426</v>
       </c>
       <c r="T11">
-        <v>0.01398159973524133</v>
+        <v>0.0001881460938453426</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>24</v>
@@ -1148,60 +1148,60 @@
         <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>98.2745468612994</v>
+        <v>2.055785333333333</v>
       </c>
       <c r="H12">
-        <v>98.2745468612994</v>
+        <v>6.167356</v>
       </c>
       <c r="I12">
-        <v>0.03017488744757338</v>
+        <v>0.0006248123263850286</v>
       </c>
       <c r="J12">
-        <v>0.03017488744757338</v>
+        <v>0.0006248123263850286</v>
       </c>
       <c r="K12">
         <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>1.02732863164104</v>
+        <v>0.03488166666666666</v>
       </c>
       <c r="N12">
-        <v>1.02732863164104</v>
+        <v>0.104645</v>
       </c>
       <c r="O12">
-        <v>0.3682820188210154</v>
+        <v>0.009745982326006345</v>
       </c>
       <c r="P12">
-        <v>0.3682820188210154</v>
+        <v>0.009745982326006345</v>
       </c>
       <c r="Q12">
-        <v>100.960255752162</v>
+        <v>0.07170921873555554</v>
       </c>
       <c r="R12">
-        <v>100.960255752162</v>
+        <v>0.64538296862</v>
       </c>
       <c r="S12">
-        <v>0.01111286846688924</v>
+        <v>6.089409890019397E-06</v>
       </c>
       <c r="T12">
-        <v>0.01111286846688924</v>
+        <v>6.089409890019397E-06</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
@@ -1213,52 +1213,300 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>98.2745468612994</v>
+        <v>2.055785333333333</v>
       </c>
       <c r="H13">
-        <v>98.2745468612994</v>
+        <v>6.167356</v>
       </c>
       <c r="I13">
-        <v>0.03017488744757338</v>
+        <v>0.0006248123263850286</v>
       </c>
       <c r="J13">
-        <v>0.03017488744757338</v>
+        <v>0.0006248123263850286</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.469659131405571</v>
+        <v>0.7256300000000001</v>
       </c>
       <c r="N13">
-        <v>0.469659131405571</v>
+        <v>2.17689</v>
       </c>
       <c r="O13">
-        <v>0.1683658059792155</v>
+        <v>0.2027419510312003</v>
       </c>
       <c r="P13">
-        <v>0.1683658059792155</v>
+        <v>0.2027419510312003</v>
       </c>
       <c r="Q13">
-        <v>46.15553831815396</v>
+        <v>1.491739511426667</v>
       </c>
       <c r="R13">
-        <v>46.15553831815396</v>
+        <v>13.42565560284</v>
       </c>
       <c r="S13">
-        <v>0.005080419245442803</v>
+        <v>0.0001266756700796438</v>
       </c>
       <c r="T13">
-        <v>0.005080419245442803</v>
+        <v>0.0001266756700796438</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>106.9830526666667</v>
+      </c>
+      <c r="H14">
+        <v>320.949158</v>
+      </c>
+      <c r="I14">
+        <v>0.03251522857790212</v>
+      </c>
+      <c r="J14">
+        <v>0.03251522857790212</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>1.740822</v>
+      </c>
+      <c r="N14">
+        <v>5.222466</v>
+      </c>
+      <c r="O14">
+        <v>0.4863878955914668</v>
+      </c>
+      <c r="P14">
+        <v>0.4863878955914669</v>
+      </c>
+      <c r="Q14">
+        <v>186.238451709292</v>
+      </c>
+      <c r="R14">
+        <v>1676.146065383628</v>
+      </c>
+      <c r="S14">
+        <v>0.01581501360268133</v>
+      </c>
+      <c r="T14">
+        <v>0.01581501360268134</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>106.9830526666667</v>
+      </c>
+      <c r="H15">
+        <v>320.949158</v>
+      </c>
+      <c r="I15">
+        <v>0.03251522857790212</v>
+      </c>
+      <c r="J15">
+        <v>0.03251522857790212</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>1.077748</v>
+      </c>
+      <c r="N15">
+        <v>3.233244</v>
+      </c>
+      <c r="O15">
+        <v>0.3011241710513264</v>
+      </c>
+      <c r="P15">
+        <v>0.3011241710513265</v>
+      </c>
+      <c r="Q15">
+        <v>115.3007710453947</v>
+      </c>
+      <c r="R15">
+        <v>1037.706939408552</v>
+      </c>
+      <c r="S15">
+        <v>0.009791121252065176</v>
+      </c>
+      <c r="T15">
+        <v>0.009791121252065178</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>106.9830526666667</v>
+      </c>
+      <c r="H16">
+        <v>320.949158</v>
+      </c>
+      <c r="I16">
+        <v>0.03251522857790212</v>
+      </c>
+      <c r="J16">
+        <v>0.03251522857790212</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.03488166666666666</v>
+      </c>
+      <c r="N16">
+        <v>0.104645</v>
+      </c>
+      <c r="O16">
+        <v>0.009745982326006345</v>
+      </c>
+      <c r="P16">
+        <v>0.009745982326006345</v>
+      </c>
+      <c r="Q16">
+        <v>3.731747182101111</v>
+      </c>
+      <c r="R16">
+        <v>33.58572463891</v>
+      </c>
+      <c r="S16">
+        <v>0.0003168928430462905</v>
+      </c>
+      <c r="T16">
+        <v>0.0003168928430462905</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>106.9830526666667</v>
+      </c>
+      <c r="H17">
+        <v>320.949158</v>
+      </c>
+      <c r="I17">
+        <v>0.03251522857790212</v>
+      </c>
+      <c r="J17">
+        <v>0.03251522857790212</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.7256300000000001</v>
+      </c>
+      <c r="N17">
+        <v>2.17689</v>
+      </c>
+      <c r="O17">
+        <v>0.2027419510312003</v>
+      </c>
+      <c r="P17">
+        <v>0.2027419510312003</v>
+      </c>
+      <c r="Q17">
+        <v>77.63011250651334</v>
+      </c>
+      <c r="R17">
+        <v>698.6710125586201</v>
+      </c>
+      <c r="S17">
+        <v>0.006592200880109316</v>
+      </c>
+      <c r="T17">
+        <v>0.006592200880109316</v>
       </c>
     </row>
   </sheetData>
